--- a/PADU_PGK Makanan, Beta & Bukan Makanan 2022.xlsx
+++ b/PADU_PGK Makanan, Beta & Bukan Makanan 2022.xlsx
@@ -1,34 +1,52 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26626"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANA\flow\pgk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5532F-499E-48F1-8814-DF0E02108D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28130" windowHeight="12470"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data PGK Makanan" sheetId="3" r:id="rId1"/>
     <sheet name="Data PGK B.Makanan (β)" sheetId="4" r:id="rId2"/>
     <sheet name="Data PGK B.Makanan (p)" sheetId="5" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>najmiAF</author>
   </authors>
   <commentList>
-    <comment ref="I1" authorId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
             <b/>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
           </rPr>
           <t>najmiAF:</t>
         </r>
@@ -36,7 +54,6 @@
           <rPr>
             <sz val="9"/>
             <rFont val="Times New Roman"/>
-            <charset val="0"/>
           </rPr>
           <t xml:space="preserve">
 constant NF x HH x price relatif x economic of scale</t>
@@ -320,15 +337,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -371,67 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -440,89 +392,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
@@ -539,209 +408,21 @@
       <b/>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <name val="Times New Roman"/>
-      <charset val="0"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -749,262 +430,20 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1012,8 +451,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="23" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1024,66 +463,22 @@
     </xf>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="6">
+    <cellStyle name="Comma 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
-    <cellStyle name="Comma" xfId="2" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
-    <cellStyle name="Currency" xfId="5" builtinId="4"/>
-    <cellStyle name="Percent" xfId="6" builtinId="5"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="Normal 5" xfId="8"/>
-    <cellStyle name="60% - Accent4" xfId="9" builtinId="44"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9"/>
-    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
-    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
-    <cellStyle name="Note" xfId="13" builtinId="10"/>
-    <cellStyle name="40% - Accent3" xfId="14" builtinId="39"/>
-    <cellStyle name="Warning Text" xfId="15" builtinId="11"/>
-    <cellStyle name="40% - Accent2" xfId="16" builtinId="35"/>
-    <cellStyle name="Title" xfId="17" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="18" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="19" builtinId="16"/>
-    <cellStyle name="Heading 3" xfId="20" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="21" builtinId="19"/>
-    <cellStyle name="Input" xfId="22" builtinId="20"/>
-    <cellStyle name="Normal 4" xfId="23"/>
-    <cellStyle name="60% - Accent3" xfId="24" builtinId="40"/>
-    <cellStyle name="Good" xfId="25" builtinId="26"/>
-    <cellStyle name="Output" xfId="26" builtinId="21"/>
-    <cellStyle name="20% - Accent1" xfId="27" builtinId="30"/>
-    <cellStyle name="Calculation" xfId="28" builtinId="22"/>
-    <cellStyle name="Linked Cell" xfId="29" builtinId="24"/>
-    <cellStyle name="Total" xfId="30" builtinId="25"/>
-    <cellStyle name="Bad" xfId="31" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="32" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="33" builtinId="29"/>
-    <cellStyle name="Normal 2" xfId="34"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46"/>
-    <cellStyle name="60% - Accent1" xfId="36" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="37" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="38" builtinId="34"/>
-    <cellStyle name="Normal 3" xfId="39"/>
-    <cellStyle name="20% - Accent6" xfId="40" builtinId="50"/>
-    <cellStyle name="60% - Accent2" xfId="41" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="42" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="43" builtinId="38"/>
-    <cellStyle name="Accent4" xfId="44" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="45" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="46" builtinId="43"/>
-    <cellStyle name="Accent5" xfId="47" builtinId="45"/>
-    <cellStyle name="40% - Accent5" xfId="48" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="49" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="50" builtinId="49"/>
-    <cellStyle name="40% - Accent6" xfId="51" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="52" builtinId="52"/>
-    <cellStyle name="Comma 2" xfId="53"/>
+    <cellStyle name="Normal 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Normal 4" xfId="2" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Normal 5" xfId="1" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1341,30 +736,28 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F749"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="22.5727272727273" style="6" customWidth="1"/>
-    <col min="2" max="2" width="11.8545454545455" style="6" customWidth="1"/>
-    <col min="3" max="3" width="10.4272727272727" style="6" customWidth="1"/>
-    <col min="4" max="4" width="14.7090909090909" style="6" customWidth="1"/>
+    <col min="1" max="1" width="22.54296875" style="6" customWidth="1"/>
+    <col min="2" max="2" width="11.81640625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="6" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" style="6" customWidth="1"/>
     <col min="5" max="5" width="9" style="6" customWidth="1"/>
-    <col min="6" max="6" width="17.2818181818182" style="6" customWidth="1"/>
-    <col min="7" max="16384" width="9.13636363636364" style="6"/>
+    <col min="6" max="6" width="17.26953125" style="6" customWidth="1"/>
+    <col min="7" max="16384" width="9.08984375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="1" ht="26" spans="1:6">
+    <row r="1" spans="1:6" s="5" customFormat="1" ht="26">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -1401,7 +794,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="9">
-        <v>25.1098148828125</v>
+        <v>25.109814882812501</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1421,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="9">
-        <v>25.1098148828125</v>
+        <v>25.109814882812501</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1441,7 +834,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="9">
-        <v>36.5794016015625</v>
+        <v>36.579401601562502</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1461,7 +854,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="9">
-        <v>36.5794016015625</v>
+        <v>36.579401601562502</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1581,7 +974,7 @@
         <v>10</v>
       </c>
       <c r="F11" s="9">
-        <v>237.13875</v>
+        <v>237.13874999999999</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1621,7 +1014,7 @@
         <v>10</v>
       </c>
       <c r="F13" s="9">
-        <v>280.26875</v>
+        <v>280.26875000000001</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1701,7 +1094,7 @@
         <v>10</v>
       </c>
       <c r="F17" s="9">
-        <v>310.966875</v>
+        <v>310.96687500000002</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1721,7 +1114,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="9">
-        <v>310.11875</v>
+        <v>310.11874999999998</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1741,7 +1134,7 @@
         <v>10</v>
       </c>
       <c r="F19" s="9">
-        <v>297.21</v>
+        <v>297.20999999999998</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1761,7 +1154,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="9">
-        <v>310.11875</v>
+        <v>310.11874999999998</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1781,7 +1174,7 @@
         <v>10</v>
       </c>
       <c r="F21" s="9">
-        <v>310.11875</v>
+        <v>310.11874999999998</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1801,7 +1194,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="9">
-        <v>297.21</v>
+        <v>297.20999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1821,7 +1214,7 @@
         <v>10</v>
       </c>
       <c r="F23" s="9">
-        <v>294.721875</v>
+        <v>294.72187500000001</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1841,7 +1234,7 @@
         <v>49</v>
       </c>
       <c r="F24" s="9">
-        <v>23.550645</v>
+        <v>23.550644999999999</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1861,7 +1254,7 @@
         <v>49</v>
       </c>
       <c r="F25" s="9">
-        <v>23.550645</v>
+        <v>23.550644999999999</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1881,7 +1274,7 @@
         <v>49</v>
       </c>
       <c r="F26" s="9">
-        <v>34.7557142857143</v>
+        <v>34.755714285714298</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1901,7 +1294,7 @@
         <v>49</v>
       </c>
       <c r="F27" s="9">
-        <v>34.7557142857143</v>
+        <v>34.755714285714298</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1961,7 +1354,7 @@
         <v>49</v>
       </c>
       <c r="F30" s="9">
-        <v>187.151428571429</v>
+        <v>187.15142857142899</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1981,7 +1374,7 @@
         <v>49</v>
       </c>
       <c r="F31" s="9">
-        <v>145.283571428571</v>
+        <v>145.28357142857101</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -2001,7 +1394,7 @@
         <v>49</v>
       </c>
       <c r="F32" s="9">
-        <v>261.207857142857</v>
+        <v>261.20785714285699</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -2021,7 +1414,7 @@
         <v>49</v>
       </c>
       <c r="F33" s="9">
-        <v>222.445</v>
+        <v>222.44499999999999</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -2041,7 +1434,7 @@
         <v>49</v>
       </c>
       <c r="F34" s="9">
-        <v>268.847857142857</v>
+        <v>268.84785714285698</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2061,7 +1454,7 @@
         <v>49</v>
       </c>
       <c r="F35" s="9">
-        <v>266.298571428571</v>
+        <v>266.29857142857099</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2081,7 +1474,7 @@
         <v>49</v>
       </c>
       <c r="F36" s="9">
-        <v>323.882142857143</v>
+        <v>323.88214285714298</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2101,7 +1494,7 @@
         <v>49</v>
       </c>
       <c r="F37" s="9">
-        <v>295.203571428571</v>
+        <v>295.20357142857102</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2181,7 +1574,7 @@
         <v>49</v>
       </c>
       <c r="F41" s="9">
-        <v>281.339285714286</v>
+        <v>281.33928571428601</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2241,7 +1634,7 @@
         <v>49</v>
       </c>
       <c r="F44" s="9">
-        <v>281.339285714286</v>
+        <v>281.33928571428601</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2261,7 +1654,7 @@
         <v>49</v>
       </c>
       <c r="F45" s="9">
-        <v>278.790714285714</v>
+        <v>278.79071428571399</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2361,7 +1754,7 @@
         <v>10</v>
       </c>
       <c r="F50" s="9">
-        <v>134.27</v>
+        <v>134.27000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2381,7 +1774,7 @@
         <v>10</v>
       </c>
       <c r="F51" s="9">
-        <v>134.27</v>
+        <v>134.27000000000001</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2601,7 +1994,7 @@
         <v>10</v>
       </c>
       <c r="F62" s="9">
-        <v>306.66</v>
+        <v>306.66000000000003</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -2621,7 +2014,7 @@
         <v>10</v>
       </c>
       <c r="F63" s="9">
-        <v>294.16</v>
+        <v>294.16000000000003</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -2641,7 +2034,7 @@
         <v>10</v>
       </c>
       <c r="F64" s="9">
-        <v>306.66</v>
+        <v>306.66000000000003</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -2661,7 +2054,7 @@
         <v>10</v>
       </c>
       <c r="F65" s="9">
-        <v>306.66</v>
+        <v>306.66000000000003</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2681,7 +2074,7 @@
         <v>10</v>
       </c>
       <c r="F66" s="9">
-        <v>294.16</v>
+        <v>294.16000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2981,7 +2374,7 @@
         <v>49</v>
       </c>
       <c r="F81" s="9">
-        <v>306.97</v>
+        <v>306.97000000000003</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -3061,7 +2454,7 @@
         <v>49</v>
       </c>
       <c r="F85" s="9">
-        <v>295.41</v>
+        <v>295.41000000000003</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -3121,7 +2514,7 @@
         <v>49</v>
       </c>
       <c r="F88" s="9">
-        <v>295.41</v>
+        <v>295.41000000000003</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -3141,7 +2534,7 @@
         <v>49</v>
       </c>
       <c r="F89" s="9">
-        <v>292.85</v>
+        <v>292.85000000000002</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -3201,7 +2594,7 @@
         <v>10</v>
       </c>
       <c r="F92" s="9">
-        <v>36.52</v>
+        <v>36.520000000000003</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3221,7 +2614,7 @@
         <v>10</v>
       </c>
       <c r="F93" s="9">
-        <v>36.52</v>
+        <v>36.520000000000003</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -3461,7 +2854,7 @@
         <v>10</v>
       </c>
       <c r="F105" s="9">
-        <v>281.1</v>
+        <v>281.10000000000002</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3801,7 +3194,7 @@
         <v>49</v>
       </c>
       <c r="F122" s="9">
-        <v>285.1</v>
+        <v>285.10000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4261,7 +3654,7 @@
         <v>10</v>
       </c>
       <c r="F145" s="9">
-        <v>258.47</v>
+        <v>258.47000000000003</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -4481,7 +3874,7 @@
         <v>49</v>
       </c>
       <c r="F156" s="9">
-        <v>19.49</v>
+        <v>19.489999999999998</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -4501,7 +3894,7 @@
         <v>49</v>
       </c>
       <c r="F157" s="9">
-        <v>19.49</v>
+        <v>19.489999999999998</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -4741,7 +4134,7 @@
         <v>49</v>
       </c>
       <c r="F169" s="9">
-        <v>275.21</v>
+        <v>275.20999999999998</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -4821,7 +4214,7 @@
         <v>49</v>
       </c>
       <c r="F173" s="9">
-        <v>263.46</v>
+        <v>263.45999999999998</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -4881,7 +4274,7 @@
         <v>49</v>
       </c>
       <c r="F176" s="9">
-        <v>263.46</v>
+        <v>263.45999999999998</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -4901,7 +4294,7 @@
         <v>49</v>
       </c>
       <c r="F177" s="9">
-        <v>260.91</v>
+        <v>260.91000000000003</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -5181,7 +4574,7 @@
         <v>10</v>
       </c>
       <c r="F191" s="9">
-        <v>315.96</v>
+        <v>315.95999999999998</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -5241,7 +4634,7 @@
         <v>10</v>
       </c>
       <c r="F194" s="9">
-        <v>317.29</v>
+        <v>317.29000000000002</v>
       </c>
     </row>
     <row r="195" spans="1:6">
@@ -5261,7 +4654,7 @@
         <v>10</v>
       </c>
       <c r="F195" s="9">
-        <v>304.66</v>
+        <v>304.66000000000003</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -5281,7 +4674,7 @@
         <v>10</v>
       </c>
       <c r="F196" s="9">
-        <v>317.29</v>
+        <v>317.29000000000002</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -5301,7 +4694,7 @@
         <v>10</v>
       </c>
       <c r="F197" s="9">
-        <v>317.29</v>
+        <v>317.29000000000002</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -5321,7 +4714,7 @@
         <v>10</v>
       </c>
       <c r="F198" s="9">
-        <v>304.66</v>
+        <v>304.66000000000003</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -5621,7 +5014,7 @@
         <v>49</v>
       </c>
       <c r="F213" s="9">
-        <v>294.66</v>
+        <v>294.66000000000003</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6141,7 +5534,7 @@
         <v>10</v>
       </c>
       <c r="F239" s="9">
-        <v>317.46</v>
+        <v>317.45999999999998</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -6201,7 +5594,7 @@
         <v>10</v>
       </c>
       <c r="F242" s="9">
-        <v>317.46</v>
+        <v>317.45999999999998</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -6541,7 +5934,7 @@
         <v>49</v>
       </c>
       <c r="F259" s="9">
-        <v>286.54</v>
+        <v>286.54000000000002</v>
       </c>
     </row>
     <row r="260" spans="1:6">
@@ -6581,7 +5974,7 @@
         <v>49</v>
       </c>
       <c r="F261" s="9">
-        <v>273.15</v>
+        <v>273.14999999999998</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -6641,7 +6034,7 @@
         <v>49</v>
       </c>
       <c r="F264" s="9">
-        <v>273.15</v>
+        <v>273.14999999999998</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -6661,7 +6054,7 @@
         <v>49</v>
       </c>
       <c r="F265" s="9">
-        <v>270.6</v>
+        <v>270.60000000000002</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -6841,7 +6234,7 @@
         <v>10</v>
       </c>
       <c r="F274" s="9">
-        <v>302.34</v>
+        <v>302.33999999999997</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7101,7 +6494,7 @@
         <v>10</v>
       </c>
       <c r="F287" s="9">
-        <v>319.15</v>
+        <v>319.14999999999998</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -7261,7 +6654,7 @@
         <v>49</v>
       </c>
       <c r="F295" s="9">
-        <v>158.58</v>
+        <v>158.58000000000001</v>
       </c>
     </row>
     <row r="296" spans="1:6">
@@ -7321,7 +6714,7 @@
         <v>49</v>
       </c>
       <c r="F298" s="9">
-        <v>269.97</v>
+        <v>269.97000000000003</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -7441,7 +6834,7 @@
         <v>49</v>
       </c>
       <c r="F304" s="9">
-        <v>305.84</v>
+        <v>305.83999999999997</v>
       </c>
     </row>
     <row r="305" spans="1:6">
@@ -7461,7 +6854,7 @@
         <v>49</v>
       </c>
       <c r="F305" s="9">
-        <v>293.22</v>
+        <v>293.22000000000003</v>
       </c>
     </row>
     <row r="306" spans="1:6">
@@ -7481,7 +6874,7 @@
         <v>49</v>
       </c>
       <c r="F306" s="9">
-        <v>305.84</v>
+        <v>305.83999999999997</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -7501,7 +6894,7 @@
         <v>49</v>
       </c>
       <c r="F307" s="9">
-        <v>305.84</v>
+        <v>305.83999999999997</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -7521,7 +6914,7 @@
         <v>49</v>
       </c>
       <c r="F308" s="9">
-        <v>293.22</v>
+        <v>293.22000000000003</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -7601,7 +6994,7 @@
         <v>10</v>
       </c>
       <c r="F312" s="9">
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -7621,7 +7014,7 @@
         <v>10</v>
       </c>
       <c r="F313" s="9">
-        <v>36.84</v>
+        <v>36.840000000000003</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -7701,7 +7094,7 @@
         <v>10</v>
       </c>
       <c r="F317" s="9">
-        <v>152.23</v>
+        <v>152.22999999999999</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -7761,7 +7154,7 @@
         <v>10</v>
       </c>
       <c r="F320" s="9">
-        <v>274.34</v>
+        <v>274.33999999999997</v>
       </c>
     </row>
     <row r="321" spans="1:6">
@@ -7861,7 +7254,7 @@
         <v>10</v>
       </c>
       <c r="F325" s="9">
-        <v>301.29</v>
+        <v>301.29000000000002</v>
       </c>
     </row>
     <row r="326" spans="1:6">
@@ -8081,7 +7474,7 @@
         <v>49</v>
       </c>
       <c r="F336" s="9">
-        <v>133.89</v>
+        <v>133.88999999999999</v>
       </c>
     </row>
     <row r="337" spans="1:6">
@@ -8101,7 +7494,7 @@
         <v>49</v>
       </c>
       <c r="F337" s="9">
-        <v>133.89</v>
+        <v>133.88999999999999</v>
       </c>
     </row>
     <row r="338" spans="1:6">
@@ -8161,7 +7554,7 @@
         <v>49</v>
       </c>
       <c r="F340" s="9">
-        <v>270.1</v>
+        <v>270.10000000000002</v>
       </c>
     </row>
     <row r="341" spans="1:6">
@@ -8301,7 +7694,7 @@
         <v>49</v>
       </c>
       <c r="F347" s="9">
-        <v>303.34</v>
+        <v>303.33999999999997</v>
       </c>
     </row>
     <row r="348" spans="1:6">
@@ -8321,7 +7714,7 @@
         <v>49</v>
       </c>
       <c r="F348" s="9">
-        <v>302.54</v>
+        <v>302.54000000000002</v>
       </c>
     </row>
     <row r="349" spans="1:6">
@@ -8361,7 +7754,7 @@
         <v>49</v>
       </c>
       <c r="F350" s="9">
-        <v>302.54</v>
+        <v>302.54000000000002</v>
       </c>
     </row>
     <row r="351" spans="1:6">
@@ -8381,7 +7774,7 @@
         <v>49</v>
       </c>
       <c r="F351" s="9">
-        <v>302.54</v>
+        <v>302.54000000000002</v>
       </c>
     </row>
     <row r="352" spans="1:6">
@@ -8481,7 +7874,7 @@
         <v>10</v>
       </c>
       <c r="F356" s="9">
-        <v>36.66</v>
+        <v>36.659999999999997</v>
       </c>
     </row>
     <row r="357" spans="1:6">
@@ -8501,7 +7894,7 @@
         <v>10</v>
       </c>
       <c r="F357" s="9">
-        <v>36.66</v>
+        <v>36.659999999999997</v>
       </c>
     </row>
     <row r="358" spans="1:6">
@@ -8581,7 +7974,7 @@
         <v>10</v>
       </c>
       <c r="F361" s="9">
-        <v>150.86</v>
+        <v>150.86000000000001</v>
       </c>
     </row>
     <row r="362" spans="1:6">
@@ -8641,7 +8034,7 @@
         <v>10</v>
       </c>
       <c r="F364" s="9">
-        <v>270.34</v>
+        <v>270.33999999999997</v>
       </c>
     </row>
     <row r="365" spans="1:6">
@@ -8741,7 +8134,7 @@
         <v>10</v>
       </c>
       <c r="F369" s="9">
-        <v>300.84</v>
+        <v>300.83999999999997</v>
       </c>
     </row>
     <row r="370" spans="1:6">
@@ -8761,7 +8154,7 @@
         <v>10</v>
       </c>
       <c r="F370" s="9">
-        <v>299.34</v>
+        <v>299.33999999999997</v>
       </c>
     </row>
     <row r="371" spans="1:6">
@@ -8801,7 +8194,7 @@
         <v>10</v>
       </c>
       <c r="F372" s="9">
-        <v>299.34</v>
+        <v>299.33999999999997</v>
       </c>
     </row>
     <row r="373" spans="1:6">
@@ -8821,7 +8214,7 @@
         <v>10</v>
       </c>
       <c r="F373" s="9">
-        <v>299.34</v>
+        <v>299.33999999999997</v>
       </c>
     </row>
     <row r="374" spans="1:6">
@@ -9201,7 +8594,7 @@
         <v>49</v>
       </c>
       <c r="F392" s="9">
-        <v>299.03</v>
+        <v>299.02999999999997</v>
       </c>
     </row>
     <row r="393" spans="1:6">
@@ -9241,7 +8634,7 @@
         <v>49</v>
       </c>
       <c r="F394" s="9">
-        <v>299.03</v>
+        <v>299.02999999999997</v>
       </c>
     </row>
     <row r="395" spans="1:6">
@@ -9261,7 +8654,7 @@
         <v>49</v>
       </c>
       <c r="F395" s="9">
-        <v>299.03</v>
+        <v>299.02999999999997</v>
       </c>
     </row>
     <row r="396" spans="1:6">
@@ -9301,7 +8694,7 @@
         <v>49</v>
       </c>
       <c r="F397" s="9">
-        <v>283.97</v>
+        <v>283.97000000000003</v>
       </c>
     </row>
     <row r="398" spans="1:6">
@@ -9361,7 +8754,7 @@
         <v>10</v>
       </c>
       <c r="F400" s="9">
-        <v>30.590425625</v>
+        <v>30.590425625000002</v>
       </c>
     </row>
     <row r="401" spans="1:6">
@@ -9381,7 +8774,7 @@
         <v>10</v>
       </c>
       <c r="F401" s="9">
-        <v>30.590425625</v>
+        <v>30.590425625000002</v>
       </c>
     </row>
     <row r="402" spans="1:6">
@@ -9461,7 +8854,7 @@
         <v>10</v>
       </c>
       <c r="F405" s="9">
-        <v>141.73</v>
+        <v>141.72999999999999</v>
       </c>
     </row>
     <row r="406" spans="1:6">
@@ -9521,7 +8914,7 @@
         <v>10</v>
       </c>
       <c r="F408" s="9">
-        <v>265.84</v>
+        <v>265.83999999999997</v>
       </c>
     </row>
     <row r="409" spans="1:6">
@@ -9581,7 +8974,7 @@
         <v>10</v>
       </c>
       <c r="F411" s="9">
-        <v>288.85</v>
+        <v>288.85000000000002</v>
       </c>
     </row>
     <row r="412" spans="1:6">
@@ -9741,7 +9134,7 @@
         <v>10</v>
       </c>
       <c r="F419" s="9">
-        <v>273.85</v>
+        <v>273.85000000000002</v>
       </c>
     </row>
     <row r="420" spans="1:6">
@@ -9761,7 +9154,7 @@
         <v>49</v>
       </c>
       <c r="F420" s="9">
-        <v>24.16903</v>
+        <v>24.169029999999999</v>
       </c>
     </row>
     <row r="421" spans="1:6">
@@ -9781,7 +9174,7 @@
         <v>49</v>
       </c>
       <c r="F421" s="9">
-        <v>24.16903</v>
+        <v>24.169029999999999</v>
       </c>
     </row>
     <row r="422" spans="1:6">
@@ -10081,7 +9474,7 @@
         <v>49</v>
       </c>
       <c r="F436" s="9">
-        <v>288.85</v>
+        <v>288.85000000000002</v>
       </c>
     </row>
     <row r="437" spans="1:6">
@@ -10121,7 +9514,7 @@
         <v>49</v>
       </c>
       <c r="F438" s="9">
-        <v>288.85</v>
+        <v>288.85000000000002</v>
       </c>
     </row>
     <row r="439" spans="1:6">
@@ -10141,7 +9534,7 @@
         <v>49</v>
       </c>
       <c r="F439" s="9">
-        <v>288.85</v>
+        <v>288.85000000000002</v>
       </c>
     </row>
     <row r="440" spans="1:6">
@@ -10361,7 +9754,7 @@
         <v>10</v>
       </c>
       <c r="F450" s="9">
-        <v>302.65</v>
+        <v>302.64999999999998</v>
       </c>
     </row>
     <row r="451" spans="1:6">
@@ -10401,7 +9794,7 @@
         <v>10</v>
       </c>
       <c r="F452" s="9">
-        <v>299.04</v>
+        <v>299.04000000000002</v>
       </c>
     </row>
     <row r="453" spans="1:6">
@@ -10781,7 +10174,7 @@
         <v>49</v>
       </c>
       <c r="F471" s="9">
-        <v>152.52</v>
+        <v>152.52000000000001</v>
       </c>
     </row>
     <row r="472" spans="1:6">
@@ -10861,7 +10254,7 @@
         <v>49</v>
       </c>
       <c r="F475" s="9">
-        <v>266.15</v>
+        <v>266.14999999999998</v>
       </c>
     </row>
     <row r="476" spans="1:6">
@@ -10941,7 +10334,7 @@
         <v>49</v>
       </c>
       <c r="F479" s="9">
-        <v>301.79</v>
+        <v>301.79000000000002</v>
       </c>
     </row>
     <row r="480" spans="1:6">
@@ -11321,7 +10714,7 @@
         <v>10</v>
       </c>
       <c r="F498" s="9">
-        <v>323.34</v>
+        <v>323.33999999999997</v>
       </c>
     </row>
     <row r="499" spans="1:6">
@@ -11381,7 +10774,7 @@
         <v>10</v>
       </c>
       <c r="F501" s="9">
-        <v>293.96</v>
+        <v>293.95999999999998</v>
       </c>
     </row>
     <row r="502" spans="1:6">
@@ -11401,7 +10794,7 @@
         <v>10</v>
       </c>
       <c r="F502" s="9">
-        <v>292.96</v>
+        <v>292.95999999999998</v>
       </c>
     </row>
     <row r="503" spans="1:6">
@@ -11441,7 +10834,7 @@
         <v>10</v>
       </c>
       <c r="F504" s="9">
-        <v>292.96</v>
+        <v>292.95999999999998</v>
       </c>
     </row>
     <row r="505" spans="1:6">
@@ -11461,7 +10854,7 @@
         <v>10</v>
       </c>
       <c r="F505" s="9">
-        <v>292.96</v>
+        <v>292.95999999999998</v>
       </c>
     </row>
     <row r="506" spans="1:6">
@@ -11561,7 +10954,7 @@
         <v>49</v>
       </c>
       <c r="F510" s="9">
-        <v>37.12</v>
+        <v>37.119999999999997</v>
       </c>
     </row>
     <row r="511" spans="1:6">
@@ -11581,7 +10974,7 @@
         <v>49</v>
       </c>
       <c r="F511" s="9">
-        <v>37.12</v>
+        <v>37.119999999999997</v>
       </c>
     </row>
     <row r="512" spans="1:6">
@@ -11681,7 +11074,7 @@
         <v>49</v>
       </c>
       <c r="F516" s="9">
-        <v>262.84</v>
+        <v>262.83999999999997</v>
       </c>
     </row>
     <row r="517" spans="1:6">
@@ -11721,7 +11114,7 @@
         <v>49</v>
       </c>
       <c r="F518" s="9">
-        <v>272.34</v>
+        <v>272.33999999999997</v>
       </c>
     </row>
     <row r="519" spans="1:6">
@@ -11741,7 +11134,7 @@
         <v>49</v>
       </c>
       <c r="F519" s="9">
-        <v>269.9</v>
+        <v>269.89999999999998</v>
       </c>
     </row>
     <row r="520" spans="1:6">
@@ -11781,7 +11174,7 @@
         <v>49</v>
       </c>
       <c r="F521" s="9">
-        <v>295.1</v>
+        <v>295.10000000000002</v>
       </c>
     </row>
     <row r="522" spans="1:6">
@@ -11841,7 +11234,7 @@
         <v>49</v>
       </c>
       <c r="F524" s="9">
-        <v>296.16</v>
+        <v>296.16000000000003</v>
       </c>
     </row>
     <row r="525" spans="1:6">
@@ -11861,7 +11254,7 @@
         <v>49</v>
       </c>
       <c r="F525" s="9">
-        <v>283.59</v>
+        <v>283.58999999999997</v>
       </c>
     </row>
     <row r="526" spans="1:6">
@@ -11881,7 +11274,7 @@
         <v>49</v>
       </c>
       <c r="F526" s="9">
-        <v>296.16</v>
+        <v>296.16000000000003</v>
       </c>
     </row>
     <row r="527" spans="1:6">
@@ -11901,7 +11294,7 @@
         <v>49</v>
       </c>
       <c r="F527" s="9">
-        <v>296.16</v>
+        <v>296.16000000000003</v>
       </c>
     </row>
     <row r="528" spans="1:6">
@@ -11921,7 +11314,7 @@
         <v>49</v>
       </c>
       <c r="F528" s="9">
-        <v>283.59</v>
+        <v>283.58999999999997</v>
       </c>
     </row>
     <row r="529" spans="1:6">
@@ -11941,7 +11334,7 @@
         <v>49</v>
       </c>
       <c r="F529" s="9">
-        <v>281.15</v>
+        <v>281.14999999999998</v>
       </c>
     </row>
     <row r="530" spans="1:6">
@@ -12101,7 +11494,7 @@
         <v>10</v>
       </c>
       <c r="F537" s="9">
-        <v>134.95</v>
+        <v>134.94999999999999</v>
       </c>
     </row>
     <row r="538" spans="1:6">
@@ -12181,7 +11574,7 @@
         <v>10</v>
       </c>
       <c r="F541" s="9">
-        <v>263.47</v>
+        <v>263.47000000000003</v>
       </c>
     </row>
     <row r="542" spans="1:6">
@@ -12201,7 +11594,7 @@
         <v>10</v>
       </c>
       <c r="F542" s="9">
-        <v>289.46</v>
+        <v>289.45999999999998</v>
       </c>
     </row>
     <row r="543" spans="1:6">
@@ -12301,7 +11694,7 @@
         <v>10</v>
       </c>
       <c r="F547" s="9">
-        <v>269.46</v>
+        <v>269.45999999999998</v>
       </c>
     </row>
     <row r="548" spans="1:6">
@@ -12361,7 +11754,7 @@
         <v>10</v>
       </c>
       <c r="F550" s="9">
-        <v>269.46</v>
+        <v>269.45999999999998</v>
       </c>
     </row>
     <row r="551" spans="1:6">
@@ -12401,7 +11794,7 @@
         <v>49</v>
       </c>
       <c r="F552" s="9">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="553" spans="1:6">
@@ -12421,7 +11814,7 @@
         <v>49</v>
       </c>
       <c r="F553" s="9">
-        <v>17.6</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="554" spans="1:6">
@@ -12601,7 +11994,7 @@
         <v>49</v>
       </c>
       <c r="F562" s="9">
-        <v>257.72</v>
+        <v>257.72000000000003</v>
       </c>
     </row>
     <row r="563" spans="1:6">
@@ -12641,7 +12034,7 @@
         <v>49</v>
       </c>
       <c r="F564" s="9">
-        <v>308.28</v>
+        <v>308.27999999999997</v>
       </c>
     </row>
     <row r="565" spans="1:6">
@@ -12741,7 +12134,7 @@
         <v>49</v>
       </c>
       <c r="F569" s="9">
-        <v>262.22</v>
+        <v>262.22000000000003</v>
       </c>
     </row>
     <row r="570" spans="1:6">
@@ -12801,7 +12194,7 @@
         <v>49</v>
       </c>
       <c r="F572" s="9">
-        <v>262.22</v>
+        <v>262.22000000000003</v>
       </c>
     </row>
     <row r="573" spans="1:6">
@@ -13021,7 +12414,7 @@
         <v>10</v>
       </c>
       <c r="F583" s="9">
-        <v>280.66</v>
+        <v>280.66000000000003</v>
       </c>
     </row>
     <row r="584" spans="1:6">
@@ -13521,7 +12914,7 @@
         <v>49</v>
       </c>
       <c r="F608" s="9">
-        <v>324.22</v>
+        <v>324.22000000000003</v>
       </c>
     </row>
     <row r="609" spans="1:6">
@@ -13541,7 +12934,7 @@
         <v>49</v>
       </c>
       <c r="F609" s="9">
-        <v>289.35</v>
+        <v>289.35000000000002</v>
       </c>
     </row>
     <row r="610" spans="1:6">
@@ -13801,7 +13194,7 @@
         <v>10</v>
       </c>
       <c r="F622" s="9">
-        <v>147.67</v>
+        <v>147.66999999999999</v>
       </c>
     </row>
     <row r="623" spans="1:6">
@@ -13821,7 +13214,7 @@
         <v>10</v>
       </c>
       <c r="F623" s="9">
-        <v>147.67</v>
+        <v>147.66999999999999</v>
       </c>
     </row>
     <row r="624" spans="1:6">
@@ -13881,7 +13274,7 @@
         <v>10</v>
       </c>
       <c r="F626" s="9">
-        <v>300.97</v>
+        <v>300.97000000000003</v>
       </c>
     </row>
     <row r="627" spans="1:6">
@@ -13921,7 +13314,7 @@
         <v>10</v>
       </c>
       <c r="F628" s="9">
-        <v>299.29</v>
+        <v>299.29000000000002</v>
       </c>
     </row>
     <row r="629" spans="1:6">
@@ -13941,7 +13334,7 @@
         <v>10</v>
       </c>
       <c r="F629" s="9">
-        <v>296.79</v>
+        <v>296.79000000000002</v>
       </c>
     </row>
     <row r="630" spans="1:6">
@@ -14601,7 +13994,7 @@
         <v>10</v>
       </c>
       <c r="F662" s="9">
-        <v>19.33</v>
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="663" spans="1:6">
@@ -14621,7 +14014,7 @@
         <v>10</v>
       </c>
       <c r="F663" s="9">
-        <v>19.33</v>
+        <v>19.329999999999998</v>
       </c>
     </row>
     <row r="664" spans="1:6">
@@ -14801,7 +14194,7 @@
         <v>10</v>
       </c>
       <c r="F672" s="9">
-        <v>292.85</v>
+        <v>292.85000000000002</v>
       </c>
     </row>
     <row r="673" spans="1:6">
@@ -14821,7 +14214,7 @@
         <v>10</v>
       </c>
       <c r="F673" s="9">
-        <v>290.22</v>
+        <v>290.22000000000003</v>
       </c>
     </row>
     <row r="674" spans="1:6">
@@ -14861,7 +14254,7 @@
         <v>10</v>
       </c>
       <c r="F675" s="9">
-        <v>310.29</v>
+        <v>310.29000000000002</v>
       </c>
     </row>
     <row r="676" spans="1:6">
@@ -14901,7 +14294,7 @@
         <v>10</v>
       </c>
       <c r="F677" s="9">
-        <v>310.53</v>
+        <v>310.52999999999997</v>
       </c>
     </row>
     <row r="678" spans="1:6">
@@ -15301,7 +14694,7 @@
         <v>49</v>
       </c>
       <c r="F697" s="9">
-        <v>299.6</v>
+        <v>299.60000000000002</v>
       </c>
     </row>
     <row r="698" spans="1:6">
@@ -15341,7 +14734,7 @@
         <v>49</v>
       </c>
       <c r="F699" s="9">
-        <v>299.85</v>
+        <v>299.85000000000002</v>
       </c>
     </row>
     <row r="700" spans="1:6">
@@ -15381,7 +14774,7 @@
         <v>49</v>
       </c>
       <c r="F701" s="9">
-        <v>284.15</v>
+        <v>284.14999999999998</v>
       </c>
     </row>
     <row r="702" spans="1:6">
@@ -15441,7 +14834,7 @@
         <v>49</v>
       </c>
       <c r="F704" s="9">
-        <v>284.15</v>
+        <v>284.14999999999998</v>
       </c>
     </row>
     <row r="705" spans="1:6">
@@ -15641,7 +15034,7 @@
         <v>10</v>
       </c>
       <c r="F714" s="9">
-        <v>284.79</v>
+        <v>284.79000000000002</v>
       </c>
     </row>
     <row r="715" spans="1:6">
@@ -15721,7 +15114,7 @@
         <v>10</v>
       </c>
       <c r="F718" s="9">
-        <v>325.72</v>
+        <v>325.72000000000003</v>
       </c>
     </row>
     <row r="719" spans="1:6">
@@ -15801,7 +15194,7 @@
         <v>10</v>
       </c>
       <c r="F722" s="9">
-        <v>316.21</v>
+        <v>316.20999999999998</v>
       </c>
     </row>
     <row r="723" spans="1:6">
@@ -15841,7 +15234,7 @@
         <v>10</v>
       </c>
       <c r="F724" s="9">
-        <v>316.21</v>
+        <v>316.20999999999998</v>
       </c>
     </row>
     <row r="725" spans="1:6">
@@ -15861,7 +15254,7 @@
         <v>10</v>
       </c>
       <c r="F725" s="9">
-        <v>316.21</v>
+        <v>316.20999999999998</v>
       </c>
     </row>
     <row r="726" spans="1:6">
@@ -16346,13 +15739,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -16361,10 +15752,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="28.1363636363636" customWidth="1"/>
+    <col min="1" max="1" width="28.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
         <v>67</v>
       </c>
@@ -16375,7 +15766,7 @@
         <v>2022</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>68</v>
       </c>
@@ -16383,10 +15774,10 @@
         <v>20.64</v>
       </c>
       <c r="C2">
-        <v>27.737395</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>27.737394999999999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>69</v>
       </c>
@@ -16394,10 +15785,10 @@
         <v>256.76</v>
       </c>
       <c r="C3">
-        <v>458.49397</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+        <v>458.49396999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>70</v>
       </c>
@@ -16405,10 +15796,10 @@
         <v>11.35</v>
       </c>
       <c r="C4">
-        <v>7.5236389</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+        <v>7.5236388999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -16416,10 +15807,10 @@
         <v>46.44</v>
       </c>
       <c r="C5">
-        <v>73.48135</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+        <v>73.481350000000006</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
         <v>72</v>
       </c>
@@ -16427,10 +15818,10 @@
         <v>120.12</v>
       </c>
       <c r="C6">
-        <v>175.84981</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+        <v>175.84980999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>73</v>
       </c>
@@ -16438,7 +15829,7 @@
         <v>0.474518</v>
       </c>
     </row>
-    <row r="11" spans="5:10">
+    <row r="11" spans="1:10">
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -16446,7 +15837,7 @@
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
-    <row r="12" spans="5:10">
+    <row r="12" spans="1:10">
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -16454,38 +15845,36 @@
       <c r="I12" s="4"/>
       <c r="J12" s="4"/>
     </row>
-    <row r="13" spans="4:4">
+    <row r="13" spans="1:10">
       <c r="D13" s="2"/>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" spans="1:10">
       <c r="D14" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.5727272727273" customWidth="1"/>
-    <col min="2" max="2" width="11.2818181818182" customWidth="1"/>
+    <col min="1" max="1" width="16.54296875" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" customWidth="1"/>
     <col min="3" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="15.2818181818182" customWidth="1"/>
+    <col min="6" max="6" width="15.26953125" customWidth="1"/>
     <col min="7" max="7" width="11" customWidth="1"/>
-    <col min="8" max="13" width="12.8181818181818"/>
+    <col min="8" max="13" width="12.81640625"/>
   </cols>
   <sheetData>
-    <row r="1" ht="58" spans="1:13">
+    <row r="1" spans="1:13" ht="58">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -16534,43 +15923,43 @@
         <v>10</v>
       </c>
       <c r="C2">
-        <v>0.74168114</v>
+        <v>0.74168113999999996</v>
       </c>
       <c r="D2">
-        <v>0.84126143</v>
+        <v>0.84126142999999998</v>
       </c>
       <c r="E2">
-        <v>0.91339381</v>
+        <v>0.91339380999999997</v>
       </c>
       <c r="F2">
-        <v>1.0158728</v>
+        <v>1.0158727999999999</v>
       </c>
       <c r="G2">
-        <v>0.6999971</v>
+        <v>0.69999710000000004</v>
       </c>
       <c r="H2">
         <f>C2*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>20.5723027442303</v>
+        <v>20.572302744230299</v>
       </c>
       <c r="I2">
-        <f>D2*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>183.027900295921</v>
+        <f>D2*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>15.409256646755052</v>
       </c>
       <c r="J2">
         <f>E2*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.87204519993521</v>
+        <v>6.8720451999352088</v>
       </c>
       <c r="K2">
         <f>F2*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>74.64770477228</v>
+        <v>74.647704772279994</v>
       </c>
       <c r="L2">
         <f>G2*'Data PGK B.Makanan (β)'!$C$6*1</f>
         <v>123.094357035551</v>
       </c>
       <c r="M2">
-        <f>SUM(H2:L2)</f>
-        <v>408.214310047918</v>
+        <f t="shared" ref="M2:M31" si="0">SUM(H2:L2)</f>
+        <v>240.59566639875158</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -16581,43 +15970,43 @@
         <v>10</v>
       </c>
       <c r="C3">
-        <v>0.76817471</v>
+        <v>0.76817471000000004</v>
       </c>
       <c r="D3">
-        <v>0.48830416</v>
+        <v>0.48830415999999999</v>
       </c>
       <c r="E3">
-        <v>0.87828292</v>
+        <v>0.87828291999999997</v>
       </c>
       <c r="F3">
-        <v>0.90431827</v>
+        <v>0.90431826999999998</v>
       </c>
       <c r="G3">
         <v>0.55168655</v>
       </c>
       <c r="H3">
         <f>C3*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>21.3071653602805</v>
+        <v>21.30716536028045</v>
       </c>
       <c r="I3">
-        <f>D3*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>106.237231285599</v>
+        <f>D3*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>8.9441924410086688</v>
       </c>
       <c r="J3">
         <f>E3*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.60788354211759</v>
+        <v>6.6078835421175874</v>
       </c>
       <c r="K3">
         <f>F3*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>66.4505273092645</v>
+        <v>66.450527309264501</v>
       </c>
       <c r="L3">
         <f>G3*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>97.0139749970555</v>
+        <v>97.013974997055499</v>
       </c>
       <c r="M3">
-        <f>SUM(H3:L3)</f>
-        <v>297.616782494317</v>
+        <f t="shared" si="0"/>
+        <v>200.32374364972671</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -16628,43 +16017,43 @@
         <v>10</v>
       </c>
       <c r="C4">
-        <v>0.77847604</v>
+        <v>0.77847604000000004</v>
       </c>
       <c r="D4">
-        <v>0.52143087</v>
+        <v>0.52143086999999999</v>
       </c>
       <c r="E4">
-        <v>0.71723323</v>
+        <v>0.71723323000000005</v>
       </c>
       <c r="F4">
         <v>0.89742833</v>
       </c>
       <c r="G4">
-        <v>0.47588115</v>
+        <v>0.47588114999999998</v>
       </c>
       <c r="H4">
         <f>C4*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>21.5928974195158</v>
+        <v>21.592897419515801</v>
       </c>
       <c r="I4">
-        <f>D4*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>113.444398949296</v>
+        <f>D4*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>9.55096930970765</v>
       </c>
       <c r="J4">
         <f>E4*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>5.39620382960065</v>
+        <v>5.3962038296006476</v>
       </c>
       <c r="K4">
         <f>F4*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>65.9442452166455</v>
+        <v>65.944245216645498</v>
       </c>
       <c r="L4">
         <f>G4*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>83.6836098100815</v>
+        <v>83.683609810081492</v>
       </c>
       <c r="M4">
-        <f>SUM(H4:L4)</f>
-        <v>290.06135522514</v>
+        <f t="shared" si="0"/>
+        <v>186.16792558555107</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16675,43 +16064,43 @@
         <v>10</v>
       </c>
       <c r="C5">
-        <v>0.88698355</v>
+        <v>0.88698354999999995</v>
       </c>
       <c r="D5">
-        <v>0.78539656</v>
+        <v>0.78539656000000002</v>
       </c>
       <c r="E5">
-        <v>1.0411919</v>
+        <v>1.0411919000000001</v>
       </c>
       <c r="F5">
-        <v>0.88548701</v>
+        <v>0.88548700999999996</v>
       </c>
       <c r="G5">
-        <v>0.6146451</v>
+        <v>0.61464510000000006</v>
       </c>
       <c r="H5">
         <f>C5*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>24.6026130848522</v>
+        <v>24.602613084852248</v>
       </c>
       <c r="I5">
-        <f>D5*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>170.873735738056</v>
+        <f>D5*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>14.385988387127833</v>
       </c>
       <c r="J5">
         <f>E5*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.83355188120491</v>
+        <v>7.8335518812049107</v>
       </c>
       <c r="K5">
         <f>F5*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>65.0667809022635</v>
+        <v>65.066780902263503</v>
       </c>
       <c r="L5">
         <f>G5*'Data PGK B.Makanan (β)'!$C$6*1</f>
         <v>108.085224052431</v>
       </c>
       <c r="M5">
-        <f>SUM(H5:L5)</f>
-        <v>376.461905658808</v>
+        <f t="shared" si="0"/>
+        <v>219.97415830787952</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16722,43 +16111,43 @@
         <v>10</v>
       </c>
       <c r="C6">
-        <v>0.73823605</v>
+        <v>0.73823605000000003</v>
       </c>
       <c r="D6">
-        <v>0.81992346</v>
+        <v>0.81992346000000005</v>
       </c>
       <c r="E6">
-        <v>0.95084854</v>
+        <v>0.95084853999999996</v>
       </c>
       <c r="F6">
-        <v>0.85522355</v>
+        <v>0.85522355000000005</v>
       </c>
       <c r="G6">
-        <v>0.47101743</v>
+        <v>0.47101743000000001</v>
       </c>
       <c r="H6">
         <f>C6*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>20.4767449220898</v>
+        <v>20.47674492208975</v>
       </c>
       <c r="I6">
-        <f>D6*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>178.385533837165</v>
+        <f>D6*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>15.018412321405727</v>
       </c>
       <c r="J6">
         <f>E6*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.15384106355221</v>
+        <v>7.1538410635522061</v>
       </c>
       <c r="K6">
         <f>F6*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>62.8429810057925</v>
+        <v>62.84298100579251</v>
       </c>
       <c r="L6">
         <f>G6*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>82.8283255721883</v>
+        <v>82.828325572188305</v>
       </c>
       <c r="M6">
-        <f>SUM(H6:L6)</f>
-        <v>351.687426400788</v>
+        <f t="shared" si="0"/>
+        <v>188.32030488502849</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16769,43 +16158,43 @@
         <v>10</v>
       </c>
       <c r="C7">
-        <v>0.94765044</v>
+        <v>0.94765043999999998</v>
       </c>
       <c r="D7">
-        <v>0.80531745</v>
+        <v>0.80531744999999999</v>
       </c>
       <c r="E7">
-        <v>0.93213171</v>
+        <v>0.93213170999999995</v>
       </c>
       <c r="F7">
         <v>0.88609536</v>
       </c>
       <c r="G7">
-        <v>0.5415792</v>
+        <v>0.54157920000000004</v>
       </c>
       <c r="H7">
         <f>C7*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>26.2853545762038</v>
+        <v>26.285354576203797</v>
       </c>
       <c r="I7">
-        <f>D7*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>175.207797111494</v>
+        <f>D7*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>14.750876275357507</v>
       </c>
       <c r="J7">
         <f>E7*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.01302239327952</v>
+        <v>7.0130223932795186</v>
       </c>
       <c r="K7">
         <f>F7*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>65.111483281536</v>
+        <v>65.11148328153601</v>
       </c>
       <c r="L7">
         <f>G7*'Data PGK B.Makanan (β)'!$C$6*1</f>
         <v>95.236599419952</v>
       </c>
       <c r="M7">
-        <f>SUM(H7:L7)</f>
-        <v>368.854256782465</v>
+        <f t="shared" si="0"/>
+        <v>208.39733594632884</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -16816,43 +16205,43 @@
         <v>10</v>
       </c>
       <c r="C8">
-        <v>0.84515936</v>
+        <v>0.84515936000000003</v>
       </c>
       <c r="D8">
-        <v>0.77272596</v>
+        <v>0.77272596000000005</v>
       </c>
       <c r="E8">
-        <v>0.94488716</v>
+        <v>0.94488715999999995</v>
       </c>
       <c r="F8">
-        <v>0.9533658</v>
+        <v>0.95336580000000004</v>
       </c>
       <c r="G8">
-        <v>0.513039</v>
+        <v>0.51303900000000002</v>
       </c>
       <c r="H8">
         <f>C8*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>23.4425190062672</v>
+        <v>23.442519006267201</v>
       </c>
       <c r="I8">
-        <f>D8*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>168.117073860084</v>
+        <f>D8*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>14.153902949348552</v>
       </c>
       <c r="J8">
         <f>E8*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.10898979308652</v>
+        <v>7.1089897930865238</v>
       </c>
       <c r="K8">
         <f>F8*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>70.05460602783</v>
+        <v>70.054606027830005</v>
       </c>
       <c r="L8">
         <f>G8*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>90.21781067259</v>
+        <v>90.217810672590005</v>
       </c>
       <c r="M8">
-        <f>SUM(H8:L8)</f>
-        <v>358.940999359858</v>
+        <f t="shared" si="0"/>
+        <v>204.97782844912228</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -16863,43 +16252,43 @@
         <v>10</v>
       </c>
       <c r="C9">
-        <v>0.72810109</v>
+        <v>0.72810109000000001</v>
       </c>
       <c r="D9">
-        <v>0.6233175</v>
+        <v>0.62331749999999997</v>
       </c>
       <c r="E9">
-        <v>0.91454684</v>
+        <v>0.91454683999999997</v>
       </c>
       <c r="F9">
-        <v>0.8848415</v>
+        <v>0.88484149999999995</v>
       </c>
       <c r="G9">
-        <v>0.5602675</v>
+        <v>0.56026750000000003</v>
       </c>
       <c r="H9">
         <f>C9*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>20.1956275332605</v>
+        <v>20.195627533260549</v>
       </c>
       <c r="I9">
-        <f>D9*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>135.6112252082</v>
+        <f>D9*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>11.417211092054632</v>
       </c>
       <c r="J9">
         <f>E9*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.88072018129608</v>
+        <v>6.8807201812960761</v>
       </c>
       <c r="K9">
         <f>F9*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>65.019347956025</v>
+        <v>65.019347956025001</v>
       </c>
       <c r="L9">
         <f>G9*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>98.522933424175</v>
+        <v>98.522933424174994</v>
       </c>
       <c r="M9">
-        <f>SUM(H9:L9)</f>
-        <v>326.229854302957</v>
+        <f t="shared" si="0"/>
+        <v>202.03584018681124</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -16910,43 +16299,43 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.74311027</v>
+        <v>0.74311026999999996</v>
       </c>
       <c r="D10">
-        <v>0.41273316</v>
+        <v>0.41273315999999999</v>
       </c>
       <c r="E10">
-        <v>0.94442838</v>
+        <v>0.94442837999999996</v>
       </c>
       <c r="F10">
-        <v>0.74422387</v>
+        <v>0.74422387000000001</v>
       </c>
       <c r="G10">
-        <v>0.37568338</v>
+        <v>0.37568338000000001</v>
       </c>
       <c r="H10">
         <f>C10*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>20.6119430875466</v>
+        <v>20.611943087546649</v>
       </c>
       <c r="I10">
-        <f>D10*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>89.7957293219784</v>
+        <f>D10*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>7.5599700191487642</v>
       </c>
       <c r="J10">
         <f>E10*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.10553809803198</v>
+        <v>7.1055380980319818</v>
       </c>
       <c r="K10">
         <f>F10*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>54.6865746698245</v>
+        <v>54.686574669824502</v>
       </c>
       <c r="L10">
         <f>G10*'Data PGK B.Makanan (β)'!$C$6*1</f>
         <v>66.0638509931578</v>
       </c>
       <c r="M10">
-        <f>SUM(H10:L10)</f>
-        <v>238.263636170539</v>
+        <f t="shared" si="0"/>
+        <v>156.02787686770972</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -16957,43 +16346,43 @@
         <v>10</v>
       </c>
       <c r="C11">
-        <v>0.78772973</v>
+        <v>0.78772973000000002</v>
       </c>
       <c r="D11">
         <v>0.95089309</v>
       </c>
       <c r="E11">
-        <v>0.98927321</v>
+        <v>0.98927321000000001</v>
       </c>
       <c r="F11">
-        <v>0.94049075</v>
+        <v>0.94049075000000004</v>
       </c>
       <c r="G11">
-        <v>0.9197968</v>
+        <v>0.91979679999999997</v>
       </c>
       <c r="H11">
         <f>C11*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>21.8495706742533</v>
+        <v>21.84957067425335</v>
       </c>
       <c r="I11">
-        <f>D11*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>206.879763486364</v>
+        <f>D11*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>17.417362956288095</v>
       </c>
       <c r="J11">
         <f>E11*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.44293440548387</v>
+        <v>7.4429344054838689</v>
       </c>
       <c r="K11">
         <f>F11*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>69.1085299725125</v>
+        <v>69.108529972512514</v>
       </c>
       <c r="L11">
         <f>G11*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>161.746092518608</v>
+        <v>161.74609251860798</v>
       </c>
       <c r="M11">
-        <f>SUM(H11:L11)</f>
-        <v>467.026891057222</v>
+        <f t="shared" si="0"/>
+        <v>277.56449052714584</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -17004,43 +16393,43 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>0.70256716</v>
+        <v>0.70256715999999997</v>
       </c>
       <c r="D12">
-        <v>0.67716052</v>
+        <v>0.67716052000000004</v>
       </c>
       <c r="E12">
-        <v>0.92457166</v>
+        <v>0.92457166000000002</v>
       </c>
       <c r="F12">
         <v>0.8799709</v>
       </c>
       <c r="G12">
-        <v>0.49970403</v>
+        <v>0.49970403000000002</v>
       </c>
       <c r="H12">
         <f>C12*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>19.4873828309482</v>
+        <v>19.487382830948199</v>
       </c>
       <c r="I12">
-        <f>D12*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>147.325508717182</v>
+        <f>D12*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>12.40344543518429</v>
       </c>
       <c r="J12">
         <f>E12*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.95614330701357</v>
+        <v>6.9561433070135736</v>
       </c>
       <c r="K12">
         <f>F12*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>64.661449692715</v>
+        <v>64.66144969271501</v>
       </c>
       <c r="L12">
         <f>G12*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>87.8728587317343</v>
+        <v>87.872858731734297</v>
       </c>
       <c r="M12">
-        <f>SUM(H12:L12)</f>
-        <v>326.303343279593</v>
+        <f t="shared" si="0"/>
+        <v>191.38127999759536</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -17051,16 +16440,16 @@
         <v>10</v>
       </c>
       <c r="C13">
-        <v>0.7571363</v>
+        <v>0.75713629999999998</v>
       </c>
       <c r="D13">
-        <v>0.96995678</v>
+        <v>0.96995677999999996</v>
       </c>
       <c r="E13">
-        <v>0.92562445</v>
+        <v>0.92562445000000004</v>
       </c>
       <c r="F13">
-        <v>0.86731873</v>
+        <v>0.86731873000000004</v>
       </c>
       <c r="G13">
         <v>0.41365741</v>
@@ -17070,24 +16459,24 @@
         <v>21.0009886219385</v>
       </c>
       <c r="I13">
-        <f>D13*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>211.027329306174</v>
+        <f>D13*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>17.766549643527728</v>
       </c>
       <c r="J13">
         <f>E13*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.96406411881111</v>
+        <v>6.9640641188111054</v>
       </c>
       <c r="K13">
         <f>F13*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>63.7317511606855</v>
+        <v>63.731751160685505</v>
       </c>
       <c r="L13">
         <f>G13*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>72.7415769535921</v>
+        <v>72.741576953592102</v>
       </c>
       <c r="M13">
-        <f>SUM(H13:L13)</f>
-        <v>375.465710161201</v>
+        <f t="shared" si="0"/>
+        <v>182.20493049855494</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -17098,10 +16487,10 @@
         <v>10</v>
       </c>
       <c r="C14">
-        <v>0.84753967</v>
+        <v>0.84753966999999997</v>
       </c>
       <c r="D14">
-        <v>0.86494047</v>
+        <v>0.86494046999999996</v>
       </c>
       <c r="E14">
         <v>1.1288426</v>
@@ -17110,31 +16499,31 @@
         <v>0.90494383</v>
       </c>
       <c r="G14">
-        <v>0.43855933</v>
+        <v>0.43855933000000002</v>
       </c>
       <c r="H14">
         <f>C14*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>23.5085426049596</v>
+        <v>23.508542604959647</v>
       </c>
       <c r="I14">
-        <f>D14*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>188.17959846925</v>
+        <f>D14*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>15.84298199240507</v>
       </c>
       <c r="J14">
         <f>E14*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>8.49300409733714</v>
+        <v>8.4930040973371401</v>
       </c>
       <c r="K14">
         <f>F14*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>66.4964943025705</v>
+        <v>66.496494302570511</v>
       </c>
       <c r="L14">
         <f>G14*'Data PGK B.Makanan (β)'!$C$6*1</f>
         <v>77.1205748542273</v>
       </c>
       <c r="M14">
-        <f>SUM(H14:L14)</f>
-        <v>363.798214328345</v>
+        <f t="shared" si="0"/>
+        <v>191.46159785149968</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -17161,27 +16550,27 @@
       </c>
       <c r="H15">
         <f>C15*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>27.737395</v>
+        <v>27.737394999999999</v>
       </c>
       <c r="I15">
-        <f>D15*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>217.56364165646</v>
+        <f>D15*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>18.316846698600045</v>
       </c>
       <c r="J15">
         <f>E15*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.5236389</v>
+        <v>7.5236388999999999</v>
       </c>
       <c r="K15">
         <f>F15*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>73.48135</v>
+        <v>73.481350000000006</v>
       </c>
       <c r="L15">
         <f>G15*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>175.84981</v>
+        <v>175.84980999999999</v>
       </c>
       <c r="M15">
-        <f>SUM(H15:L15)</f>
-        <v>502.15583555646</v>
+        <f t="shared" si="0"/>
+        <v>302.90904059860003</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -17192,43 +16581,43 @@
         <v>10</v>
       </c>
       <c r="C16">
-        <v>0.74626135</v>
+        <v>0.74626135000000005</v>
       </c>
       <c r="D16">
         <v>0.9908439</v>
       </c>
       <c r="E16">
-        <v>1.1413762</v>
+        <v>1.1413762000000001</v>
       </c>
       <c r="F16">
-        <v>0.47906964</v>
+        <v>0.47906964000000002</v>
       </c>
       <c r="G16">
-        <v>0.31739047</v>
+        <v>0.31739046999999998</v>
       </c>
       <c r="H16">
         <f>C16*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>20.6993458381833</v>
+        <v>20.699345838183252</v>
       </c>
       <c r="I16">
-        <f>D16*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>215.571607197089</v>
+        <f>D16*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>18.149135818542995</v>
       </c>
       <c r="J16">
         <f>E16*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>8.58730237785418</v>
+        <v>8.587302377854181</v>
       </c>
       <c r="K16">
         <f>F16*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>35.202683891214</v>
+        <v>35.202683891214008</v>
       </c>
       <c r="L16">
         <f>G16*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>55.8130538453107</v>
+        <v>55.813053845310691</v>
       </c>
       <c r="M16">
-        <f>SUM(H16:L16)</f>
-        <v>335.873993149651</v>
+        <f t="shared" si="0"/>
+        <v>138.45152177110512</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -17239,43 +16628,43 @@
         <v>10</v>
       </c>
       <c r="C17">
-        <v>0.77252779</v>
+        <v>0.77252779000000005</v>
       </c>
       <c r="D17">
-        <v>0.69934826</v>
+        <v>0.69934826000000005</v>
       </c>
       <c r="E17">
-        <v>0.9081829</v>
+        <v>0.90818290000000002</v>
       </c>
       <c r="F17">
-        <v>0.80309091</v>
+        <v>0.80309090999999999</v>
       </c>
       <c r="G17">
-        <v>0.42841432</v>
+        <v>0.42841432000000002</v>
       </c>
       <c r="H17">
         <f>C17*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>21.4279084597071</v>
+        <v>21.427908459707051</v>
       </c>
       <c r="I17">
-        <f>D17*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>152.152754231709</v>
+        <f>D17*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>12.809854867352687</v>
       </c>
       <c r="J17">
         <f>E17*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.83284019475481</v>
+        <v>6.8328401947548096</v>
       </c>
       <c r="K17">
         <f>F17*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>59.0122042395285</v>
+        <v>59.012204239528508</v>
       </c>
       <c r="L17">
         <f>G17*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>75.3365767732792</v>
+        <v>75.336576773279205</v>
       </c>
       <c r="M17">
-        <f>SUM(H17:L17)</f>
-        <v>314.762283898978</v>
+        <f t="shared" si="0"/>
+        <v>175.41938453462225</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -17286,43 +16675,43 @@
         <v>49</v>
       </c>
       <c r="C18">
-        <v>0.58055705</v>
+        <v>0.58055705000000002</v>
       </c>
       <c r="D18">
-        <v>0.55472896</v>
+        <v>0.55472896000000005</v>
       </c>
       <c r="E18">
-        <v>0.88895776</v>
+        <v>0.88895776000000004</v>
       </c>
       <c r="F18">
-        <v>0.91934024</v>
+        <v>0.91934024000000003</v>
       </c>
       <c r="G18">
-        <v>0.6021942</v>
+        <v>0.60219420000000001</v>
       </c>
       <c r="H18">
         <f>C18*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>16.1031402158847</v>
+        <v>16.10314021588475</v>
       </c>
       <c r="I18">
-        <f>D18*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>120.688852669901</v>
+        <f>D18*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>10.160885319593838</v>
       </c>
       <c r="J18">
         <f>E18*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.68819718359286</v>
+        <v>6.6881971835928642</v>
       </c>
       <c r="K18">
         <f>F18*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>67.554361944524</v>
+        <v>67.554361944524004</v>
       </c>
       <c r="L18">
         <f>G18*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>105.895735653102</v>
+        <v>105.89573565310199</v>
       </c>
       <c r="M18">
-        <f>SUM(H18:L18)</f>
-        <v>316.930287667004</v>
+        <f t="shared" si="0"/>
+        <v>206.40232031669746</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -17333,43 +16722,43 @@
         <v>49</v>
       </c>
       <c r="C19">
-        <v>0.64876991</v>
+        <v>0.64876990999999995</v>
       </c>
       <c r="D19">
         <v>0.21296287</v>
       </c>
       <c r="E19">
-        <v>0.81563063</v>
+        <v>0.81563063000000002</v>
       </c>
       <c r="F19">
-        <v>0.85479084</v>
+        <v>0.85479084000000005</v>
       </c>
       <c r="G19">
-        <v>0.51603306</v>
+        <v>0.51603306000000004</v>
       </c>
       <c r="H19">
         <f>C19*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>17.9951872577844</v>
+        <v>17.995187257784448</v>
       </c>
       <c r="I19">
-        <f>D19*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>46.3329775348113</v>
+        <f>D19*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>3.9008082422838908</v>
       </c>
       <c r="J19">
         <f>E19*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.13651033589951</v>
+        <v>6.1365103358995068</v>
       </c>
       <c r="K19">
         <f>F19*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>62.811184890834</v>
+        <v>62.811184890834006</v>
       </c>
       <c r="L19">
         <f>G19*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>90.7443155547186</v>
+        <v>90.744315554718597</v>
       </c>
       <c r="M19">
-        <f>SUM(H19:L19)</f>
-        <v>224.020175574048</v>
+        <f t="shared" si="0"/>
+        <v>181.58800628152045</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -17380,43 +16769,43 @@
         <v>49</v>
       </c>
       <c r="C20">
-        <v>0.66957121</v>
+        <v>0.66957120999999997</v>
       </c>
       <c r="D20">
-        <v>0.23320037</v>
+        <v>0.23320036999999999</v>
       </c>
       <c r="E20">
-        <v>1.1413113</v>
+        <v>1.1413112999999999</v>
       </c>
       <c r="F20">
-        <v>0.74369011</v>
+        <v>0.74369010999999996</v>
       </c>
       <c r="G20">
-        <v>0.55033081</v>
+        <v>0.55033080999999995</v>
       </c>
       <c r="H20">
         <f>C20*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>18.5721611323979</v>
+        <v>18.572161132397948</v>
       </c>
       <c r="I20">
-        <f>D20*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>50.7359217328339</v>
+        <f>D20*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>4.2714954273468093</v>
       </c>
       <c r="J20">
         <f>E20*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>8.58681409368957</v>
+        <v>8.5868140936895685</v>
       </c>
       <c r="K20">
         <f>F20*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>54.6473532644485</v>
+        <v>54.647353264448505</v>
       </c>
       <c r="L20">
         <f>G20*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>96.7755683756461</v>
+        <v>96.775568375646088</v>
       </c>
       <c r="M20">
-        <f>SUM(H20:L20)</f>
-        <v>229.317818599016</v>
+        <f t="shared" si="0"/>
+        <v>182.85339229352891</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -17427,43 +16816,43 @@
         <v>49</v>
       </c>
       <c r="C21">
-        <v>0.80596433</v>
+        <v>0.80596433000000001</v>
       </c>
       <c r="D21">
-        <v>0.25451567</v>
+        <v>0.25451567000000003</v>
       </c>
       <c r="E21">
-        <v>0.91525301</v>
+        <v>0.91525301000000003</v>
       </c>
       <c r="F21">
-        <v>0.99877848</v>
+        <v>0.99877848000000002</v>
       </c>
       <c r="G21">
-        <v>0.49263499</v>
+        <v>0.49263498999999999</v>
       </c>
       <c r="H21">
         <f>C21*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>22.3553509771203</v>
+        <v>22.355350977120349</v>
       </c>
       <c r="I21">
-        <f>D21*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>55.3733560238338</v>
+        <f>D21*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>4.6619245097814792</v>
       </c>
       <c r="J21">
         <f>E21*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.88603314937809</v>
+        <v>6.8860331493780889</v>
       </c>
       <c r="K21">
         <f>F21*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>73.391591061348</v>
+        <v>73.391591061348009</v>
       </c>
       <c r="L21">
         <f>G21*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>86.6297693908519</v>
+        <v>86.629769390851891</v>
       </c>
       <c r="M21">
-        <f>SUM(H21:L21)</f>
-        <v>244.636100602532</v>
+        <f t="shared" si="0"/>
+        <v>193.92466908847982</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -17483,18 +16872,18 @@
         <v>1.0774302</v>
       </c>
       <c r="F22">
-        <v>0.73733802</v>
+        <v>0.73733802000000004</v>
       </c>
       <c r="G22">
-        <v>0.56449701</v>
+        <v>0.56449700999999997</v>
       </c>
       <c r="H22">
         <f>C22*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>16.7573494216237</v>
+        <v>16.757349421623651</v>
       </c>
       <c r="I22">
-        <f>D22*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>55.1306311470198</v>
+        <f>D22*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>4.6414893197621856</v>
       </c>
       <c r="J22">
         <f>E22*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -17502,15 +16891,15 @@
       </c>
       <c r="K22">
         <f>F22*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>54.180593115927</v>
+        <v>54.18059311592701</v>
       </c>
       <c r="L22">
         <f>G22*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>99.2666919540681</v>
+        <v>99.266691954068094</v>
       </c>
       <c r="M22">
-        <f>SUM(H22:L22)</f>
-        <v>233.441461403393</v>
+        <f t="shared" si="0"/>
+        <v>182.95231957613572</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -17521,43 +16910,43 @@
         <v>49</v>
       </c>
       <c r="C23">
-        <v>0.72199327</v>
+        <v>0.72199327000000002</v>
       </c>
       <c r="D23">
-        <v>0.42037773</v>
+        <v>0.42037773000000001</v>
       </c>
       <c r="E23">
-        <v>0.92533467</v>
+        <v>0.92533467000000003</v>
       </c>
       <c r="F23">
-        <v>0.91635924</v>
+        <v>0.91635924000000002</v>
       </c>
       <c r="G23">
-        <v>0.55776179</v>
+        <v>0.55776179000000004</v>
       </c>
       <c r="H23">
         <f>C23*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>20.0262125173317</v>
+        <v>20.026212517331651</v>
       </c>
       <c r="I23">
-        <f>D23*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>91.4589098100761</v>
+        <f>D23*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>7.6999944359154817</v>
       </c>
       <c r="J23">
         <f>E23*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.96188391873066</v>
+        <v>6.9618839187306634</v>
       </c>
       <c r="K23">
         <f>F23*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>67.335314040174</v>
+        <v>67.335314040174012</v>
       </c>
       <c r="L23">
         <f>G23*'Data PGK B.Makanan (β)'!$C$6*1</f>
         <v>98.0823047967599</v>
       </c>
       <c r="M23">
-        <f>SUM(H23:L23)</f>
-        <v>283.864625083072</v>
+        <f t="shared" si="0"/>
+        <v>200.10570970891172</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -17568,43 +16957,43 @@
         <v>49</v>
       </c>
       <c r="C24">
-        <v>0.58636309</v>
+        <v>0.58636308999999998</v>
       </c>
       <c r="D24">
-        <v>0.4291756</v>
+        <v>0.42917559999999999</v>
       </c>
       <c r="E24">
-        <v>0.93744963</v>
+        <v>0.93744963000000003</v>
       </c>
       <c r="F24">
-        <v>0.74251018</v>
+        <v>0.74251018000000002</v>
       </c>
       <c r="G24">
-        <v>0.36336137</v>
+        <v>0.36336137000000002</v>
       </c>
       <c r="H24">
         <f>C24*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>16.2641846407505</v>
+        <v>16.26418464075055</v>
       </c>
       <c r="I24">
-        <f>D24*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>93.3730064460962</v>
+        <f>D24*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>7.8611436719796934</v>
       </c>
       <c r="J24">
         <f>E24*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.05303250305861</v>
+        <v>7.0530325030586072</v>
       </c>
       <c r="K24">
         <f>F24*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>54.560650415143</v>
+        <v>54.560650415143009</v>
       </c>
       <c r="L24">
         <f>G24*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>63.8970278758397</v>
+        <v>63.897027875839697</v>
       </c>
       <c r="M24">
-        <f>SUM(H24:L24)</f>
-        <v>235.147901880888</v>
+        <f t="shared" si="0"/>
+        <v>149.63603910677153</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -17615,43 +17004,43 @@
         <v>49</v>
       </c>
       <c r="C25">
-        <v>0.61286996</v>
+        <v>0.61286996000000005</v>
       </c>
       <c r="D25">
-        <v>0.38294892</v>
+        <v>0.38294892000000003</v>
       </c>
       <c r="E25">
-        <v>0.83931236</v>
+        <v>0.83931235999999998</v>
       </c>
       <c r="F25">
-        <v>0.80279934</v>
+        <v>0.80279933999999997</v>
       </c>
       <c r="G25">
-        <v>0.51766563</v>
+        <v>0.51766562999999999</v>
       </c>
       <c r="H25">
         <f>C25*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>16.9994161641542</v>
+        <v>16.999416164154201</v>
       </c>
       <c r="I25">
-        <f>D25*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>83.3157616036084</v>
+        <f>D25*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>7.0144166610344536</v>
       </c>
       <c r="J25">
         <f>E25*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.3146831209468</v>
+        <v>6.3146831209468042</v>
       </c>
       <c r="K25">
         <f>F25*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>58.990779282309</v>
+        <v>58.990779282309006</v>
       </c>
       <c r="L25">
         <f>G25*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>91.0314026790303</v>
+        <v>91.031402679030293</v>
       </c>
       <c r="M25">
-        <f>SUM(H25:L25)</f>
-        <v>256.652042850049</v>
+        <f t="shared" si="0"/>
+        <v>180.35069790747474</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -17662,43 +17051,43 @@
         <v>49</v>
       </c>
       <c r="C26">
-        <v>0.66182302</v>
+        <v>0.66182302000000004</v>
       </c>
       <c r="D26">
-        <v>0.33321145</v>
+        <v>0.33321145000000002</v>
       </c>
       <c r="E26">
-        <v>0.99755728</v>
+        <v>0.99755727999999999</v>
       </c>
       <c r="F26">
-        <v>0.76811271</v>
+        <v>0.76811271000000003</v>
       </c>
       <c r="G26">
-        <v>0.32005711</v>
+        <v>0.32005710999999998</v>
       </c>
       <c r="H26">
         <f>C26*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>18.3572465258329</v>
+        <v>18.357246525832899</v>
       </c>
       <c r="I26">
-        <f>D26*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>72.4946965036294</v>
+        <f>D26*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>6.1033830478682347</v>
       </c>
       <c r="J26">
         <f>E26*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.50526075678619</v>
+        <v>7.5052607567861918</v>
       </c>
       <c r="K26">
         <f>F26*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>56.4419588829585</v>
+        <v>56.441958882958509</v>
       </c>
       <c r="L26">
         <f>G26*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>56.2819819826491</v>
+        <v>56.281981982649093</v>
       </c>
       <c r="M26">
-        <f>SUM(H26:L26)</f>
-        <v>211.081144651856</v>
+        <f t="shared" si="0"/>
+        <v>144.68983119609493</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -17709,43 +17098,43 @@
         <v>49</v>
       </c>
       <c r="C27">
-        <v>0.61009316</v>
+        <v>0.61009316000000002</v>
       </c>
       <c r="D27">
-        <v>0.443928</v>
+        <v>0.44392799999999999</v>
       </c>
       <c r="E27">
-        <v>0.99492232</v>
+        <v>0.99492232000000003</v>
       </c>
       <c r="F27">
-        <v>0.82204231</v>
+        <v>0.82204231000000005</v>
       </c>
       <c r="G27">
-        <v>0.85975208</v>
+        <v>0.85975208000000003</v>
       </c>
       <c r="H27">
         <f>C27*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>16.9223949657182</v>
+        <v>16.922394965718201</v>
       </c>
       <c r="I27">
-        <f>D27*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>96.582592313269</v>
+        <f>D27*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>8.1313611212161199</v>
       </c>
       <c r="J27">
         <f>E27*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.48543626923025</v>
+        <v>7.4854362692302479</v>
       </c>
       <c r="K27">
         <f>F27*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>60.4047786959185</v>
+        <v>60.404778695918509</v>
       </c>
       <c r="L27">
         <f>G27*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>151.187239915105</v>
+        <v>151.18723991510481</v>
       </c>
       <c r="M27">
-        <f>SUM(H27:L27)</f>
-        <v>332.582442159241</v>
+        <f t="shared" si="0"/>
+        <v>244.13121096718788</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -17756,43 +17145,43 @@
         <v>49</v>
       </c>
       <c r="C28">
-        <v>0.65884066</v>
+        <v>0.65884065999999997</v>
       </c>
       <c r="D28">
         <v>0.39107617</v>
       </c>
       <c r="E28">
-        <v>0.91529065</v>
+        <v>0.91529064999999998</v>
       </c>
       <c r="F28">
-        <v>0.94181794</v>
+        <v>0.94181793999999996</v>
       </c>
       <c r="G28">
-        <v>0.55244165</v>
+        <v>0.55244165000000001</v>
       </c>
       <c r="H28">
         <f>C28*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>18.2745236284807</v>
+        <v>18.274523628480697</v>
       </c>
       <c r="I28">
-        <f>D28*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>85.0839557102608</v>
+        <f>D28*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>7.1632822533656499</v>
       </c>
       <c r="J28">
         <f>E28*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.88631633914629</v>
+        <v>6.8863163391462852</v>
       </c>
       <c r="K28">
         <f>F28*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>69.206053685419</v>
+        <v>69.206053685419008</v>
       </c>
       <c r="L28">
         <f>G28*'Data PGK B.Makanan (β)'!$C$6*1</f>
         <v>97.1467591885865</v>
       </c>
       <c r="M28">
-        <f>SUM(H28:L28)</f>
-        <v>276.597608551893</v>
+        <f t="shared" si="0"/>
+        <v>198.67693509499816</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -17803,43 +17192,43 @@
         <v>49</v>
       </c>
       <c r="C29">
-        <v>0.63467848</v>
+        <v>0.63467848000000004</v>
       </c>
       <c r="D29">
-        <v>0.5990445</v>
+        <v>0.59904449999999998</v>
       </c>
       <c r="E29">
-        <v>0.88828164</v>
+        <v>0.88828163999999998</v>
       </c>
       <c r="F29">
-        <v>0.8567576</v>
+        <v>0.85675760000000001</v>
       </c>
       <c r="G29">
-        <v>0.70789051</v>
+        <v>0.70789051000000003</v>
       </c>
       <c r="H29">
         <f>C29*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>17.6043276977596</v>
+        <v>17.604327697759601</v>
       </c>
       <c r="I29">
-        <f>D29*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>130.330302934273</v>
+        <f>D29*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>10.972606272139515</v>
       </c>
       <c r="J29">
         <f>E29*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>6.6831103008598</v>
+        <v>6.6831103008597958</v>
       </c>
       <c r="K29">
         <f>F29*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>62.95570507076</v>
+        <v>62.955705070760004</v>
       </c>
       <c r="L29">
         <f>G29*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>124.482411684303</v>
+        <v>124.4824116843031</v>
       </c>
       <c r="M29">
-        <f>SUM(H29:L29)</f>
-        <v>342.055857687956</v>
+        <f t="shared" si="0"/>
+        <v>222.698161025822</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -17850,43 +17239,43 @@
         <v>49</v>
       </c>
       <c r="C30">
-        <v>0.62661427</v>
+        <v>0.62661427000000003</v>
       </c>
       <c r="D30">
-        <v>0.46894514</v>
+        <v>0.46894513999999998</v>
       </c>
       <c r="E30">
-        <v>1.0420009</v>
+        <v>1.0420008999999999</v>
       </c>
       <c r="F30">
         <v>0.81625448</v>
       </c>
       <c r="G30">
-        <v>0.59542249</v>
+        <v>0.59542249000000003</v>
       </c>
       <c r="H30">
         <f>C30*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>17.3806475196266</v>
+        <v>17.380647519626649</v>
       </c>
       <c r="I30">
-        <f>D30*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>102.025412395498</v>
+        <f>D30*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>8.5895962394335363</v>
       </c>
       <c r="J30">
         <f>E30*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>7.83963850507501</v>
+        <v>7.8396385050750093</v>
       </c>
       <c r="K30">
         <f>F30*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>59.979481133948</v>
+        <v>59.979481133948006</v>
       </c>
       <c r="L30">
         <f>G30*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>104.704931736227</v>
+        <v>104.7049317362269</v>
       </c>
       <c r="M30">
-        <f>SUM(H30:L30)</f>
-        <v>291.930111290375</v>
+        <f t="shared" si="0"/>
+        <v>198.49429513431011</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -17900,45 +17289,44 @@
         <v>0.53540071</v>
       </c>
       <c r="D31">
-        <v>0.55383849</v>
+        <v>0.55383848999999996</v>
       </c>
       <c r="E31">
-        <v>0.45463751</v>
+        <v>0.45463751000000002</v>
       </c>
       <c r="F31">
-        <v>0.28382641</v>
+        <v>0.28382640999999997</v>
       </c>
       <c r="G31">
         <v>0.2976818</v>
       </c>
       <c r="H31">
         <f>C31*'Data PGK B.Makanan (β)'!$C$2*1</f>
-        <v>14.8506209765505</v>
+        <v>14.85062097655045</v>
       </c>
       <c r="I31">
-        <f>D31*'Data PGK B.Makanan (β)'!$C$3*'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>120.495118773915</v>
+        <f>D31*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
+        <v>10.144574717114134</v>
       </c>
       <c r="J31">
         <f>E31*'Data PGK B.Makanan (β)'!$C$4*1</f>
-        <v>3.42052845563514</v>
+        <v>3.420528455635139</v>
       </c>
       <c r="K31">
         <f>F31*'Data PGK B.Makanan (β)'!$C$5*1</f>
-        <v>20.8559477724535</v>
+        <v>20.855947772453501</v>
       </c>
       <c r="L31">
         <f>G31*'Data PGK B.Makanan (β)'!$C$6*1</f>
-        <v>52.347287970458</v>
+        <v>52.347287970457998</v>
       </c>
       <c r="M31">
-        <f>SUM(H31:L31)</f>
-        <v>211.969503949012</v>
+        <f t="shared" si="0"/>
+        <v>101.61895989221122</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/PADU_PGK Makanan, Beta & Bukan Makanan 2022.xlsx
+++ b/PADU_PGK Makanan, Beta & Bukan Makanan 2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ANA\flow\pgk\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0E5532F-499E-48F1-8814-DF0E02108D62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E81EC73E-A573-4AF2-AE29-77A82DAA74F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15744,10 +15744,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J14"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:M19"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3:F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -15787,6 +15787,13 @@
       <c r="C3">
         <v>458.49396999999999</v>
       </c>
+      <c r="E3">
+        <v>0.84126142999999998</v>
+      </c>
+      <c r="F3">
+        <f>$C$3*E3^$C$8</f>
+        <v>422.38844218569744</v>
+      </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
@@ -15798,6 +15805,13 @@
       <c r="C4">
         <v>7.5236388999999999</v>
       </c>
+      <c r="E4">
+        <v>0.48830415999999999</v>
+      </c>
+      <c r="F4">
+        <f t="shared" ref="F4:F32" si="0">$C$3*E4^$C$8</f>
+        <v>326.29591068314159</v>
+      </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
@@ -15809,6 +15823,13 @@
       <c r="C5">
         <v>73.481350000000006</v>
       </c>
+      <c r="E5">
+        <v>0.52143086999999999</v>
+      </c>
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>336.61881782920665</v>
+      </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
@@ -15820,6 +15841,22 @@
       <c r="C6">
         <v>175.84980999999999</v>
       </c>
+      <c r="E6">
+        <v>0.78539656000000002</v>
+      </c>
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>408.83820035477186</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="E7">
+        <v>0.81992346000000005</v>
+      </c>
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>417.27033754172004</v>
+      </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
@@ -15828,18 +15865,53 @@
       <c r="C8" s="3">
         <v>0.474518</v>
       </c>
+      <c r="E8">
+        <v>0.80531744999999999</v>
+      </c>
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>413.72649053101776</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="E9">
+        <v>0.77272596000000005</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>405.69505471167224</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="E10">
+        <v>0.62331749999999997</v>
+      </c>
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>366.36966339264012</v>
+      </c>
     </row>
     <row r="11" spans="1:10">
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
+      <c r="E11">
+        <v>0.41273315999999999</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>301.27411744331698</v>
+      </c>
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
+      <c r="E12">
+        <v>0.95089309</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>447.66869148048175</v>
+      </c>
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
@@ -15847,9 +15919,185 @@
     </row>
     <row r="13" spans="1:10">
       <c r="D13" s="2"/>
+      <c r="E13">
+        <v>0.67716052000000004</v>
+      </c>
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>381.06034744613902</v>
+      </c>
     </row>
     <row r="14" spans="1:10">
       <c r="D14" s="2"/>
+      <c r="E14">
+        <v>0.96995677999999996</v>
+      </c>
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>451.9052592277219</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="E15">
+        <v>0.86494046999999996</v>
+      </c>
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>427.98884959337641</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>458.49396999999999</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17">
+        <v>0.9908439</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>456.4971208959895</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18">
+        <v>0.69934826000000005</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>386.9348953499221</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19">
+        <v>0.55472896000000005</v>
+      </c>
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>346.6533327721375</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20">
+        <v>0.21296287</v>
+      </c>
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>220.09072145762926</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21">
+        <v>0.23320036999999999</v>
+      </c>
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>229.77870078075213</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22">
+        <v>0.25451567000000003</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>239.51596890343535</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23">
+        <v>0.25340002</v>
+      </c>
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>239.0171974183319</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24">
+        <v>0.42037773000000001</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>303.90923112770491</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25">
+        <v>0.42917559999999999</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>306.91091510984853</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26">
+        <v>0.38294892000000003</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>290.75450850548339</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27">
+        <v>0.33321145000000002</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>272.17964144839414</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28">
+        <v>0.44392799999999999</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>311.87249835541377</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29">
+        <v>0.39107617</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>293.66642827546781</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30">
+        <v>0.59904449999999998</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>359.52902622129074</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31">
+        <v>0.46894513999999998</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>320.09221825838029</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32">
+        <v>0.55383848999999996</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>346.38917110053376</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -15861,7 +16109,7 @@
   <dimension ref="A1:M31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:I31"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.5"/>
@@ -15942,8 +16190,7 @@
         <v>20.572302744230299</v>
       </c>
       <c r="I2">
-        <f>D2*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>15.409256646755052</v>
+        <v>422.38844218569744</v>
       </c>
       <c r="J2">
         <f>E2*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -15959,7 +16206,7 @@
       </c>
       <c r="M2">
         <f t="shared" ref="M2:M31" si="0">SUM(H2:L2)</f>
-        <v>240.59566639875158</v>
+        <v>647.57485193769389</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -15989,8 +16236,7 @@
         <v>21.30716536028045</v>
       </c>
       <c r="I3">
-        <f>D3*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>8.9441924410086688</v>
+        <v>326.29591068314159</v>
       </c>
       <c r="J3">
         <f>E3*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16006,7 +16252,7 @@
       </c>
       <c r="M3">
         <f t="shared" si="0"/>
-        <v>200.32374364972671</v>
+        <v>517.67546189185964</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -16036,8 +16282,7 @@
         <v>21.592897419515801</v>
       </c>
       <c r="I4">
-        <f>D4*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>9.55096930970765</v>
+        <v>336.61881782920665</v>
       </c>
       <c r="J4">
         <f>E4*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16053,7 +16298,7 @@
       </c>
       <c r="M4">
         <f t="shared" si="0"/>
-        <v>186.16792558555107</v>
+        <v>513.23577410505015</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -16083,8 +16328,7 @@
         <v>24.602613084852248</v>
       </c>
       <c r="I5">
-        <f>D5*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>14.385988387127833</v>
+        <v>408.83820035477186</v>
       </c>
       <c r="J5">
         <f>E5*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16100,7 +16344,7 @@
       </c>
       <c r="M5">
         <f t="shared" si="0"/>
-        <v>219.97415830787952</v>
+        <v>614.4263702755236</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -16130,8 +16374,7 @@
         <v>20.47674492208975</v>
       </c>
       <c r="I6">
-        <f>D6*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>15.018412321405727</v>
+        <v>417.27033754172004</v>
       </c>
       <c r="J6">
         <f>E6*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16147,7 +16390,7 @@
       </c>
       <c r="M6">
         <f t="shared" si="0"/>
-        <v>188.32030488502849</v>
+        <v>590.57223010534278</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -16177,8 +16420,7 @@
         <v>26.285354576203797</v>
       </c>
       <c r="I7">
-        <f>D7*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>14.750876275357507</v>
+        <v>413.72649053101776</v>
       </c>
       <c r="J7">
         <f>E7*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16194,7 +16436,7 @@
       </c>
       <c r="M7">
         <f t="shared" si="0"/>
-        <v>208.39733594632884</v>
+        <v>607.37295020198906</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -16224,8 +16466,7 @@
         <v>23.442519006267201</v>
       </c>
       <c r="I8">
-        <f>D8*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>14.153902949348552</v>
+        <v>405.69505471167224</v>
       </c>
       <c r="J8">
         <f>E8*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16241,7 +16482,7 @@
       </c>
       <c r="M8">
         <f t="shared" si="0"/>
-        <v>204.97782844912228</v>
+        <v>596.51898021144598</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -16271,8 +16512,7 @@
         <v>20.195627533260549</v>
       </c>
       <c r="I9">
-        <f>D9*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>11.417211092054632</v>
+        <v>366.36966339264012</v>
       </c>
       <c r="J9">
         <f>E9*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16288,7 +16528,7 @@
       </c>
       <c r="M9">
         <f t="shared" si="0"/>
-        <v>202.03584018681124</v>
+        <v>556.98829248739673</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -16318,8 +16558,7 @@
         <v>20.611943087546649</v>
       </c>
       <c r="I10">
-        <f>D10*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>7.5599700191487642</v>
+        <v>301.27411744331698</v>
       </c>
       <c r="J10">
         <f>E10*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16335,7 +16574,7 @@
       </c>
       <c r="M10">
         <f t="shared" si="0"/>
-        <v>156.02787686770972</v>
+        <v>449.7420242918779</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -16365,8 +16604,7 @@
         <v>21.84957067425335</v>
       </c>
       <c r="I11">
-        <f>D11*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>17.417362956288095</v>
+        <v>447.66869148048175</v>
       </c>
       <c r="J11">
         <f>E11*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16382,7 +16620,7 @@
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>277.56449052714584</v>
+        <v>707.81581905133942</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -16412,8 +16650,7 @@
         <v>19.487382830948199</v>
       </c>
       <c r="I12">
-        <f>D12*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>12.40344543518429</v>
+        <v>381.06034744613902</v>
       </c>
       <c r="J12">
         <f>E12*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16429,7 +16666,7 @@
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>191.38127999759536</v>
+        <v>560.03818200855005</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -16459,8 +16696,7 @@
         <v>21.0009886219385</v>
       </c>
       <c r="I13">
-        <f>D13*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>17.766549643527728</v>
+        <v>451.9052592277219</v>
       </c>
       <c r="J13">
         <f>E13*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16476,7 +16712,7 @@
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>182.20493049855494</v>
+        <v>616.34364008274918</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -16506,8 +16742,7 @@
         <v>23.508542604959647</v>
       </c>
       <c r="I14">
-        <f>D14*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>15.84298199240507</v>
+        <v>427.98884959337641</v>
       </c>
       <c r="J14">
         <f>E14*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16523,7 +16758,7 @@
       </c>
       <c r="M14">
         <f t="shared" si="0"/>
-        <v>191.46159785149968</v>
+        <v>603.60746545247093</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -16553,8 +16788,7 @@
         <v>27.737394999999999</v>
       </c>
       <c r="I15">
-        <f>D15*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>18.316846698600045</v>
+        <v>458.49396999999999</v>
       </c>
       <c r="J15">
         <f>E15*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16570,7 +16804,7 @@
       </c>
       <c r="M15">
         <f t="shared" si="0"/>
-        <v>302.90904059860003</v>
+        <v>743.08616389999997</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -16600,8 +16834,7 @@
         <v>20.699345838183252</v>
       </c>
       <c r="I16">
-        <f>D16*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>18.149135818542995</v>
+        <v>456.4971208959895</v>
       </c>
       <c r="J16">
         <f>E16*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16617,7 +16850,7 @@
       </c>
       <c r="M16">
         <f t="shared" si="0"/>
-        <v>138.45152177110512</v>
+        <v>576.79950684855169</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -16647,8 +16880,7 @@
         <v>21.427908459707051</v>
       </c>
       <c r="I17">
-        <f>D17*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>12.809854867352687</v>
+        <v>386.9348953499221</v>
       </c>
       <c r="J17">
         <f>E17*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16664,7 +16896,7 @@
       </c>
       <c r="M17">
         <f t="shared" si="0"/>
-        <v>175.41938453462225</v>
+        <v>549.54442501719166</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -16694,8 +16926,7 @@
         <v>16.10314021588475</v>
       </c>
       <c r="I18">
-        <f>D18*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>10.160885319593838</v>
+        <v>346.6533327721375</v>
       </c>
       <c r="J18">
         <f>E18*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16711,7 +16942,7 @@
       </c>
       <c r="M18">
         <f t="shared" si="0"/>
-        <v>206.40232031669746</v>
+        <v>542.89476776924107</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -16741,8 +16972,7 @@
         <v>17.995187257784448</v>
       </c>
       <c r="I19">
-        <f>D19*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>3.9008082422838908</v>
+        <v>220.09072145762926</v>
       </c>
       <c r="J19">
         <f>E19*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16758,7 +16988,7 @@
       </c>
       <c r="M19">
         <f t="shared" si="0"/>
-        <v>181.58800628152045</v>
+        <v>397.77791949686582</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -16788,8 +17018,7 @@
         <v>18.572161132397948</v>
       </c>
       <c r="I20">
-        <f>D20*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>4.2714954273468093</v>
+        <v>229.77870078075213</v>
       </c>
       <c r="J20">
         <f>E20*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16805,7 +17034,7 @@
       </c>
       <c r="M20">
         <f t="shared" si="0"/>
-        <v>182.85339229352891</v>
+        <v>408.36059764693425</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -16835,8 +17064,7 @@
         <v>22.355350977120349</v>
       </c>
       <c r="I21">
-        <f>D21*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>4.6619245097814792</v>
+        <v>239.51596890343535</v>
       </c>
       <c r="J21">
         <f>E21*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16852,7 +17080,7 @@
       </c>
       <c r="M21">
         <f t="shared" si="0"/>
-        <v>193.92466908847982</v>
+        <v>428.7787134821337</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -16882,8 +17110,7 @@
         <v>16.757349421623651</v>
       </c>
       <c r="I22">
-        <f>D22*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>4.6414893197621856</v>
+        <v>239.0171974183319</v>
       </c>
       <c r="J22">
         <f>E22*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16899,7 +17126,7 @@
       </c>
       <c r="M22">
         <f t="shared" si="0"/>
-        <v>182.95231957613572</v>
+        <v>417.32802767470548</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -16929,8 +17156,7 @@
         <v>20.026212517331651</v>
       </c>
       <c r="I23">
-        <f>D23*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>7.6999944359154817</v>
+        <v>303.90923112770491</v>
       </c>
       <c r="J23">
         <f>E23*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16946,7 +17172,7 @@
       </c>
       <c r="M23">
         <f t="shared" si="0"/>
-        <v>200.10570970891172</v>
+        <v>496.31494640070116</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -16976,8 +17202,7 @@
         <v>16.26418464075055</v>
       </c>
       <c r="I24">
-        <f>D24*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>7.8611436719796934</v>
+        <v>306.91091510984853</v>
       </c>
       <c r="J24">
         <f>E24*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -16993,7 +17218,7 @@
       </c>
       <c r="M24">
         <f t="shared" si="0"/>
-        <v>149.63603910677153</v>
+        <v>448.68581054464039</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -17023,8 +17248,7 @@
         <v>16.999416164154201</v>
       </c>
       <c r="I25">
-        <f>D25*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>7.0144166610344536</v>
+        <v>290.75450850548339</v>
       </c>
       <c r="J25">
         <f>E25*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -17040,7 +17264,7 @@
       </c>
       <c r="M25">
         <f t="shared" si="0"/>
-        <v>180.35069790747474</v>
+        <v>464.09078975192369</v>
       </c>
     </row>
     <row r="26" spans="1:13">
@@ -17070,8 +17294,7 @@
         <v>18.357246525832899</v>
       </c>
       <c r="I26">
-        <f>D26*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>6.1033830478682347</v>
+        <v>272.17964144839414</v>
       </c>
       <c r="J26">
         <f>E26*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -17087,7 +17310,7 @@
       </c>
       <c r="M26">
         <f t="shared" si="0"/>
-        <v>144.68983119609493</v>
+        <v>410.76608959662082</v>
       </c>
     </row>
     <row r="27" spans="1:13">
@@ -17117,8 +17340,7 @@
         <v>16.922394965718201</v>
       </c>
       <c r="I27">
-        <f>D27*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>8.1313611212161199</v>
+        <v>311.87249835541377</v>
       </c>
       <c r="J27">
         <f>E27*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -17134,7 +17356,7 @@
       </c>
       <c r="M27">
         <f t="shared" si="0"/>
-        <v>244.13121096718788</v>
+        <v>547.87234820138553</v>
       </c>
     </row>
     <row r="28" spans="1:13">
@@ -17164,8 +17386,7 @@
         <v>18.274523628480697</v>
       </c>
       <c r="I28">
-        <f>D28*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>7.1632822533656499</v>
+        <v>293.66642827546781</v>
       </c>
       <c r="J28">
         <f>E28*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -17181,7 +17402,7 @@
       </c>
       <c r="M28">
         <f t="shared" si="0"/>
-        <v>198.67693509499816</v>
+        <v>485.18008111710031</v>
       </c>
     </row>
     <row r="29" spans="1:13">
@@ -17211,8 +17432,7 @@
         <v>17.604327697759601</v>
       </c>
       <c r="I29">
-        <f>D29*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>10.972606272139515</v>
+        <v>359.52902622129074</v>
       </c>
       <c r="J29">
         <f>E29*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -17228,7 +17448,7 @@
       </c>
       <c r="M29">
         <f t="shared" si="0"/>
-        <v>222.698161025822</v>
+        <v>571.25458097497335</v>
       </c>
     </row>
     <row r="30" spans="1:13">
@@ -17258,8 +17478,7 @@
         <v>17.380647519626649</v>
       </c>
       <c r="I30">
-        <f>D30*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>8.5895962394335363</v>
+        <v>320.09221825838029</v>
       </c>
       <c r="J30">
         <f>E30*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -17275,7 +17494,7 @@
       </c>
       <c r="M30">
         <f t="shared" si="0"/>
-        <v>198.49429513431011</v>
+        <v>509.9969171532569</v>
       </c>
     </row>
     <row r="31" spans="1:13">
@@ -17305,8 +17524,7 @@
         <v>14.85062097655045</v>
       </c>
       <c r="I31">
-        <f>D31*'Data PGK B.Makanan (β)'!$C$3^'Data PGK B.Makanan (β)'!$C$8</f>
-        <v>10.144574717114134</v>
+        <v>346.38917110053376</v>
       </c>
       <c r="J31">
         <f>E31*'Data PGK B.Makanan (β)'!$C$4*1</f>
@@ -17322,7 +17540,7 @@
       </c>
       <c r="M31">
         <f t="shared" si="0"/>
-        <v>101.61895989221122</v>
+        <v>437.8635562756308</v>
       </c>
     </row>
   </sheetData>
